--- a/data_output/results_of_grouping_attempts.xlsx
+++ b/data_output/results_of_grouping_attempts.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgaid\Google Drive\Colab Notebooks\NRUHSE_2_Kaggle_Coursera\final\Kag\data_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1841D5BE-56C7-4B18-B48E-F88BFF894E71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02ABDE61-493B-4C8C-90C8-B8051BE9406C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8E922349-5CAB-4486-B52B-DE742A6FBB1B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="item_category_id" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="223">
   <si>
     <t>n_nodes</t>
   </si>
@@ -210,15 +210,592 @@
   <si>
     <t>done: Fri 11:56:33 05/29/20</t>
   </si>
+  <si>
+    <t>done: Fri 20:41:22 05/29/20</t>
+  </si>
+  <si>
+    <t>Correlation Threshold (1000x): 930</t>
+  </si>
+  <si>
+    <t>Daily sales clip limits before grouping: 0, 20</t>
+  </si>
+  <si>
+    <t>Drop test month (= 34) before grouping?: True</t>
+  </si>
+  <si>
+    <t>Grouping time period: by month</t>
+  </si>
+  <si>
+    <t>Grouping category: by item_category_id</t>
+  </si>
+  <si>
+    <t>Aggregation column: sum of sales within a month for each item_category_id</t>
+  </si>
+  <si>
+    <t>Number of community clusters identified in the graph: 6</t>
+  </si>
+  <si>
+    <t>Total number of ids in all suggested clusters): 24</t>
+  </si>
+  <si>
+    <t>Number of *unique* ids contained in all clusters: 24</t>
+  </si>
+  <si>
+    <t>[30, 40, 43, 45, 57, 75]</t>
+  </si>
+  <si>
+    <t>[Games PC - Standard Edition, Movie - DVD, Books - Audiobooks, Books - Audiobooks 1C, Music - MP3, Program - For home and office]</t>
+  </si>
+  <si>
+    <t>[7, 14, 22]</t>
+  </si>
+  <si>
+    <t>[Accessories - XBOX ONE, Game consoles - PSVita, Games - PSVita]</t>
+  </si>
+  <si>
+    <t>cluster</t>
+  </si>
+  <si>
+    <t>Top 10 strongest correlated pairs:</t>
+  </si>
+  <si>
+    <t>cat1</t>
+  </si>
+  <si>
+    <t>cat2</t>
+  </si>
+  <si>
+    <t>corr</t>
+  </si>
+  <si>
+    <t>[Accessories - PSP, Games - PSP]</t>
+  </si>
+  <si>
+    <t>[Books - Audiobooks, Music - MP3]</t>
+  </si>
+  <si>
+    <t>[Music - Music video, Program - Educational]</t>
+  </si>
+  <si>
+    <t>[Movie - DVD, Books - Audiobooks]</t>
+  </si>
+  <si>
+    <t>[Accessories - PSP, Gifts - Cards, Stickers]</t>
+  </si>
+  <si>
+    <t>[Games PC - Standard Edition, Movie - DVD]</t>
+  </si>
+  <si>
+    <t>[Gifts - Cards, Stickers, Program - Educational]</t>
+  </si>
+  <si>
+    <t>[Accessories - PSP, Music - Music video]</t>
+  </si>
+  <si>
+    <t>[Music - Music video, Net carriers (piece)]</t>
+  </si>
+  <si>
+    <t>rank</t>
+  </si>
+  <si>
+    <t>done: Fri 20:50:56 05/29/20</t>
+  </si>
+  <si>
+    <t>Correlation Threshold (1000x): 900</t>
+  </si>
+  <si>
+    <t>Number of community clusters identified in the graph: 9</t>
+  </si>
+  <si>
+    <t>Total number of ids in all suggested clusters): 46</t>
+  </si>
+  <si>
+    <t>Number of *unique* ids contained in all clusters: 46</t>
+  </si>
+  <si>
+    <t>[4, 13, 17, 21, 30, 40, 41, 43, 45, 57, 59, 60, 66, 73, 75, 77, 81, 82]</t>
+  </si>
+  <si>
+    <t>[Accessories - PSP, Game consoles - PSP, Game consoles - Other, Games - PSP, Games PC - Standard Edition, Movie - DVD, Cinema - Collector, Books - Audiobooks, Books - Audiobooks 1C, Music - MP3, Music - Music video, Music - Gift Edition, Gifts - Cards, Stickers, Program - 1C: Enterprise 8, Program - For home and office, Program - Educational, Net carriers (spire), Net carriers (piece)]</t>
+  </si>
+  <si>
+    <t>[3, 6, 7, 14, 15, 16, 22, 23, 63, 64, 65]</t>
+  </si>
+  <si>
+    <t>[Accessories - PS4, Accessories - XBOX 360, Accessories - XBOX ONE, Game consoles - PSVita, Game consoles - XBOX 360, Game consoles - XBOX ONE, Games - PSVita, Games - XBOX 360, Gifts - Soft Toys, Gifts - Board Games, Gifts - Games (compact)]</t>
+  </si>
+  <si>
+    <t>[12, 19, 67]</t>
+  </si>
+  <si>
+    <t>[Game consoles - PS4, Games - PS3, Gifts - Development]</t>
+  </si>
+  <si>
+    <t>[24, 69]</t>
+  </si>
+  <si>
+    <t>[Games - XBOX ONE, Gifts - Souvenirs]</t>
+  </si>
+  <si>
+    <t>[34, 35]</t>
+  </si>
+  <si>
+    <t>[Payment cards - Live! (Numeral), Payment cards - PSN]</t>
+  </si>
+  <si>
+    <t>[44, 47]</t>
+  </si>
+  <si>
+    <t>[Books - Audiobooks (figure), Books - Comics, Manga]</t>
+  </si>
+  <si>
+    <t>[29, 74]</t>
+  </si>
+  <si>
+    <t>[Games PC - Collector's Edition, Program - MAC (figure)]</t>
+  </si>
+  <si>
+    <t>[31, 79]</t>
+  </si>
+  <si>
+    <t>[Games PC - Digital, System Tools]</t>
+  </si>
+  <si>
+    <t>done: Fri 20:55:00 05/29/20</t>
+  </si>
+  <si>
+    <t>Correlation Threshold (1000x): 920</t>
+  </si>
+  <si>
+    <t>Grouping time period: by week</t>
+  </si>
+  <si>
+    <t>Aggregation column: sum of sales within a week for each item_category_id</t>
+  </si>
+  <si>
+    <t>Number of community clusters identified in the graph: 8</t>
+  </si>
+  <si>
+    <t>Total number of ids in all suggested clusters): 19</t>
+  </si>
+  <si>
+    <t>Number of *unique* ids contained in all clusters: 19</t>
+  </si>
+  <si>
+    <t>[9, 18]</t>
+  </si>
+  <si>
+    <t>[Delivery of goods, Games - PS2]</t>
+  </si>
+  <si>
+    <t>[8, 80]</t>
+  </si>
+  <si>
+    <t>[Tickets (digits), Utilities - Tickets]</t>
+  </si>
+  <si>
+    <t>[59, 77]</t>
+  </si>
+  <si>
+    <t>[40, 43, 57]</t>
+  </si>
+  <si>
+    <t>[Movie - DVD, Books - Audiobooks, Music - MP3]</t>
+  </si>
+  <si>
+    <t>[3, 7, 14, 16]</t>
+  </si>
+  <si>
+    <t>[Accessories - PS4, Accessories - XBOX ONE, Game consoles - PSVita, Game consoles - XBOX ONE]</t>
+  </si>
+  <si>
+    <t>[64, 65]</t>
+  </si>
+  <si>
+    <t>[Gifts - Board Games, Gifts - Games (compact)]</t>
+  </si>
+  <si>
+    <t>[2, 11]</t>
+  </si>
+  <si>
+    <t>[Accessories - PS3, Game consoles - PS3]</t>
+  </si>
+  <si>
+    <t>[4, 21]</t>
+  </si>
+  <si>
+    <t>Top 10 most-strongly-correlated pairs:</t>
+  </si>
+  <si>
+    <t>[Accessories - XBOX ONE, Game consoles - PSVita]</t>
+  </si>
+  <si>
+    <t>[Accessories - XBOX ONE, Game consoles - XBOX ONE]</t>
+  </si>
+  <si>
+    <t>actually, 9 vs. 18 scatter plot doesn't look good… 18 stays flat at 1 sale/week while 9 varies quite a bit; let's try some other correlation method</t>
+  </si>
+  <si>
+    <t>done: Fri 21:07:04 05/29/20</t>
+  </si>
+  <si>
+    <t>Correlation Method: kendall</t>
+  </si>
+  <si>
+    <t>Number of community clusters identified in the graph: 1</t>
+  </si>
+  <si>
+    <t>Total number of ids in all suggested clusters): 2</t>
+  </si>
+  <si>
+    <t>Number of *unique* ids contained in all clusters: 2</t>
+  </si>
+  <si>
+    <t>[Games - PSP, Books - Audiobooks]</t>
+  </si>
+  <si>
+    <t>[Games - PSP, Movie - DVD]</t>
+  </si>
+  <si>
+    <t>[Games - PSP, Music - MP3]</t>
+  </si>
+  <si>
+    <t>[Movie - DVD, Gifts - gadgets, robots, sports]</t>
+  </si>
+  <si>
+    <t>[Accessories - PS3, Gifts - gadgets, robots, sports]</t>
+  </si>
+  <si>
+    <t>done: Fri 21:11:57 05/29/20</t>
+  </si>
+  <si>
+    <t>Correlation Threshold (1000x): 750</t>
+  </si>
+  <si>
+    <t>Number of community clusters identified in the graph: 3</t>
+  </si>
+  <si>
+    <t>Total number of ids in all suggested clusters): 15</t>
+  </si>
+  <si>
+    <t>Number of *unique* ids contained in all clusters: 15</t>
+  </si>
+  <si>
+    <t>[59, 66, 77]</t>
+  </si>
+  <si>
+    <t>[Music - Music video, Gifts - Cards, Stickers, Program - Educational]</t>
+  </si>
+  <si>
+    <t>[2, 4, 5, 21, 30, 40, 43, 57, 62, 75]</t>
+  </si>
+  <si>
+    <t>[Accessories - PS3, Accessories - PSP, Accessories - PSVita, Games - PSP, Games PC - Standard Edition, Movie - DVD, Books - Audiobooks, Music - MP3, Gifts - gadgets, robots, sports, Program - For home and office]</t>
+  </si>
+  <si>
+    <t>done: Fri 21:15:16 05/29/20</t>
+  </si>
+  <si>
+    <t>Correlation Method: spearman</t>
+  </si>
+  <si>
+    <t>Total number of ids in all suggested clusters): 17</t>
+  </si>
+  <si>
+    <t>Number of *unique* ids contained in all clusters: 17</t>
+  </si>
+  <si>
+    <t>[2, 4, 5, 11, 21, 30, 40, 43, 57, 62, 75]</t>
+  </si>
+  <si>
+    <t>[Accessories - PS3, Accessories - PSP, Accessories - PSVita, Game consoles - PS3, Games - PSP, Games PC - Standard Edition, Movie - DVD, Books - Audiobooks, Music - MP3, Gifts - gadgets, robots, sports, Program - For home and office]</t>
+  </si>
+  <si>
+    <t>[59, 66, 77, 82]</t>
+  </si>
+  <si>
+    <t>[Music - Music video, Gifts - Cards, Stickers, Program - Educational, Net carriers (piece)]</t>
+  </si>
+  <si>
+    <t>done: Fri 21:41:50 05/29/20</t>
+  </si>
+  <si>
+    <t>Minimum number of periods for correlation calc: 24</t>
+  </si>
+  <si>
+    <t>Number of community clusters identified in the graph: 2</t>
+  </si>
+  <si>
+    <t>Minimum number of periods for correlation calc: 8</t>
+  </si>
+  <si>
+    <t>Correlation Method: pearson</t>
+  </si>
+  <si>
+    <t>[Accessories - PSVita, Gifts - gadgets, robots, sports]</t>
+  </si>
+  <si>
+    <t>done: Fri 21:46:16 05/29/20</t>
+  </si>
+  <si>
+    <t>Minimum number of periods for correlation calc: 4</t>
+  </si>
+  <si>
+    <t>Number of community clusters identified in the graph: 4</t>
+  </si>
+  <si>
+    <t>[17, 68]</t>
+  </si>
+  <si>
+    <t>[Game consoles - Other, Gifts - certificates, services]</t>
+  </si>
+  <si>
+    <t>done: Fri 21:51:46 05/29/20</t>
+  </si>
+  <si>
+    <t>Total number of ids in all suggested clusters): 22</t>
+  </si>
+  <si>
+    <t>Number of *unique* ids contained in all clusters: 22</t>
+  </si>
+  <si>
+    <t>[7, 24]</t>
+  </si>
+  <si>
+    <t>[Accessories - XBOX ONE, Games - XBOX ONE]</t>
+  </si>
+  <si>
+    <t>[42, 47]</t>
+  </si>
+  <si>
+    <t>[Books - artbook, encyclopedia, Books - Comics, Manga]</t>
+  </si>
+  <si>
+    <t>[2, 4, 5, 11, 21, 30, 40, 43, 57, 59, 62, 66, 75, 77, 81, 82]</t>
+  </si>
+  <si>
+    <t>[Accessories - PS3, Accessories - PSP, Accessories - PSVita, Game consoles - PS3, Games - PSP, Games PC - Standard Edition, Movie - DVD, Books - Audiobooks, Music - MP3, Music - Music video, Gifts - gadgets, robots, sports, Gifts - Cards, Stickers, Program - For home and office, Program - Educational, Net carriers (spire), Net carriers (piece)]</t>
+  </si>
+  <si>
+    <t>[16, 34]</t>
+  </si>
+  <si>
+    <t>[Game consoles - XBOX ONE, Payment cards - Live! (Numeral)]</t>
+  </si>
+  <si>
+    <t>--&gt; fillna(0) before computing correlation coefficient (above, had NaN wherever grouping = no sales)</t>
+  </si>
+  <si>
+    <t>[Music - Music video, Gifts - Cards, Stickers]</t>
+  </si>
+  <si>
+    <t>[Gifts - Cards, Stickers, Net carriers (piece)]</t>
+  </si>
+  <si>
+    <t>done: Fri 22:00:37 05/29/20</t>
+  </si>
+  <si>
+    <t>Number of community clusters identified in the graph: 5</t>
+  </si>
+  <si>
+    <t>Total number of ids in all suggested clusters): 21</t>
+  </si>
+  <si>
+    <t>Number of *unique* ids contained in all clusters: 21</t>
+  </si>
+  <si>
+    <t>[34, 79]</t>
+  </si>
+  <si>
+    <t>[Payment cards - Live! (Numeral), System Tools]</t>
+  </si>
+  <si>
+    <t>fillna(0) True</t>
+  </si>
+  <si>
+    <t>[Net carriers (spire), Net carriers (piece)]</t>
+  </si>
+  <si>
+    <t>[Games - PSP, Gifts - Cards, Stickers]</t>
+  </si>
+  <si>
+    <t>done: Fri 22:03:55 05/29/20</t>
+  </si>
+  <si>
+    <t>Total number of ids in all suggested clusters): 12</t>
+  </si>
+  <si>
+    <t>Number of *unique* ids contained in all clusters: 12</t>
+  </si>
+  <si>
+    <t>[59, 66, 77, 81, 82]</t>
+  </si>
+  <si>
+    <t>[Music - Music video, Gifts - Cards, Stickers, Program - Educational, Net carriers (spire), Net carriers (piece)]</t>
+  </si>
+  <si>
+    <t>fillna(0) true</t>
+  </si>
+  <si>
+    <t>[Program - Educational, Net carriers (piece)]</t>
+  </si>
+  <si>
+    <t>I think pearson does better when we fill NaN values with 0 (after grouping by month/week/etc.)</t>
+  </si>
+  <si>
+    <t>done: Fri 22:09:53 05/29/20</t>
+  </si>
+  <si>
+    <t>Total number of ids in all suggested clusters): 23</t>
+  </si>
+  <si>
+    <t>Number of *unique* ids contained in all clusters: 23</t>
+  </si>
+  <si>
+    <t>[2, 11, 62]</t>
+  </si>
+  <si>
+    <t>[Accessories - PS3, Game consoles - PS3, Gifts - gadgets, robots, sports]</t>
+  </si>
+  <si>
+    <t>[30, 40, 43, 57, 75]</t>
+  </si>
+  <si>
+    <t>[Games PC - Standard Edition, Movie - DVD, Books - Audiobooks, Music - MP3, Program - For home and office]</t>
+  </si>
+  <si>
+    <t>[7, 16]</t>
+  </si>
+  <si>
+    <t>best results so far</t>
+  </si>
+  <si>
+    <t>maybe try combining with another correlation model  before feeding into networkX graph?</t>
+  </si>
+  <si>
+    <t>maybe try combining with monthly, weekly, quarterly, seasonal results before feeding into networkX graph?</t>
+  </si>
+  <si>
+    <t>done: Fri 22:32:26 05/29/20</t>
+  </si>
+  <si>
+    <t>Correlation Threshold (1000x): 988</t>
+  </si>
+  <si>
+    <t>Grouping time period: by season</t>
+  </si>
+  <si>
+    <t>Aggregation column: sum of sales within a season for each item_category_id</t>
+  </si>
+  <si>
+    <t>Number of community clusters identified in the graph: 18</t>
+  </si>
+  <si>
+    <t>Total number of ids in all suggested clusters): 54</t>
+  </si>
+  <si>
+    <t>Number of *unique* ids contained in all clusters: 54</t>
+  </si>
+  <si>
+    <t>[51, 52]</t>
+  </si>
+  <si>
+    <t>[Books - Informative literature, Books - Travel Guides]</t>
+  </si>
+  <si>
+    <t>[10, 30, 48, 50]</t>
+  </si>
+  <si>
+    <t>[Game consoles - PS2, Games PC - Standard Edition, Books - Computer Books, Books - Postcards]</t>
+  </si>
+  <si>
+    <t>[11, 12, 14, 64, 69]</t>
+  </si>
+  <si>
+    <t>[Game consoles - PS3, Game consoles - PS4, Game consoles - PSVita, Gifts - Board Games, Gifts - Souvenirs]</t>
+  </si>
+  <si>
+    <t>[8, 36, 47, 80]</t>
+  </si>
+  <si>
+    <t>[Tickets (digits), Payment card - Windows (figure), Books - Comics, Manga, Utilities - Tickets]</t>
+  </si>
+  <si>
+    <t>[41, 60, 66]</t>
+  </si>
+  <si>
+    <t>[Cinema - Collector, Music - Gift Edition, Gifts - Cards, Stickers]</t>
+  </si>
+  <si>
+    <t>[4, 81]</t>
+  </si>
+  <si>
+    <t>[Accessories - PSP, Net carriers (spire)]</t>
+  </si>
+  <si>
+    <t>[26, 42]</t>
+  </si>
+  <si>
+    <t>[Games Android - Digital, Books - artbook, encyclopedia]</t>
+  </si>
+  <si>
+    <t>[3, 6, 7, 24, 72]</t>
+  </si>
+  <si>
+    <t>[Accessories - PS4, Accessories - XBOX 360, Accessories - XBOX ONE, Games - XBOX ONE, Gifts - Figures]</t>
+  </si>
+  <si>
+    <t>[28, 35]</t>
+  </si>
+  <si>
+    <t>[Games PC - Additional publications, Payment cards - PSN]</t>
+  </si>
+  <si>
+    <t>[58, 65]</t>
+  </si>
+  <si>
+    <t>[Music - Vinyl, Gifts - Games (compact)]</t>
+  </si>
+  <si>
+    <t>[Books - Computer Books, Books - Postcards]</t>
+  </si>
+  <si>
+    <t>[Game consoles - PS2, Books - Computer Books]</t>
+  </si>
+  <si>
+    <t>[Game consoles - PS3, Gifts - Souvenirs]</t>
+  </si>
+  <si>
+    <t>[Books - Comics, Manga, Utilities - Tickets]</t>
+  </si>
+  <si>
+    <t>[Game consoles - PS2, Books - Postcards]</t>
+  </si>
+  <si>
+    <t>[Music - Gift Edition, Gifts - Cards, Stickers]</t>
+  </si>
+  <si>
+    <t>[Books - Audiobooks, Music - Music video]</t>
+  </si>
+  <si>
+    <t>[Accessories - PS2, Gifts - Development]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -266,8 +843,14 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,6 +860,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,22 +897,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -638,10 +1231,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122DECD8-45C3-4EBA-A806-A1EDBF1B7DD2}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I468"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A385" workbookViewId="0">
+      <selection activeCell="I462" sqref="I462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,295 +1254,5507 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>25</v>
+    <row r="3" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>26</v>
+      <c r="A4" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>0</v>
-      </c>
-      <c r="B11" s="4">
-        <v>2</v>
-      </c>
-      <c r="C11" s="4">
-        <v>958</v>
-      </c>
-      <c r="D11" s="4">
-        <v>958</v>
-      </c>
-      <c r="E11" s="4">
-        <v>958</v>
-      </c>
-      <c r="F11" s="4">
-        <v>958</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>1</v>
-      </c>
-      <c r="B12" s="4">
-        <v>7</v>
-      </c>
-      <c r="C12" s="4">
-        <v>950</v>
-      </c>
-      <c r="D12" s="4">
-        <v>17104</v>
-      </c>
-      <c r="E12" s="4">
-        <v>984</v>
-      </c>
-      <c r="F12" s="4">
-        <v>927</v>
-      </c>
-      <c r="G12" s="4">
-        <v>14.551</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B13" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C13" s="4">
-        <v>945</v>
+        <v>958</v>
       </c>
       <c r="D13" s="4">
-        <v>10393</v>
+        <v>958</v>
       </c>
       <c r="E13" s="4">
-        <v>976</v>
+        <v>958</v>
       </c>
       <c r="F13" s="4">
-        <v>921</v>
+        <v>958</v>
       </c>
       <c r="G13" s="4">
-        <v>17.774999999999999</v>
+        <v>0</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B14" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C14" s="4">
-        <v>940</v>
+        <v>950</v>
       </c>
       <c r="D14" s="4">
-        <v>2821</v>
+        <v>17104</v>
       </c>
       <c r="E14" s="4">
-        <v>954</v>
+        <v>984</v>
       </c>
       <c r="F14" s="4">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="G14" s="4">
-        <v>9.6720000000000006</v>
+        <v>14.551</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B15" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C15" s="4">
-        <v>934</v>
+        <v>945</v>
       </c>
       <c r="D15" s="4">
-        <v>2801</v>
+        <v>10393</v>
       </c>
       <c r="E15" s="4">
-        <v>939</v>
+        <v>976</v>
       </c>
       <c r="F15" s="4">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="G15" s="4">
-        <v>4.9889999999999999</v>
+        <v>17.774999999999999</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B16" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C16" s="4">
-        <v>934</v>
+        <v>940</v>
       </c>
       <c r="D16" s="4">
-        <v>934</v>
+        <v>2821</v>
       </c>
       <c r="E16" s="4">
-        <v>934</v>
+        <v>954</v>
       </c>
       <c r="F16" s="4">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="G16" s="4">
-        <v>0</v>
+        <v>9.6720000000000006</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B17" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C17" s="4">
-        <v>927</v>
+        <v>934</v>
       </c>
       <c r="D17" s="4">
-        <v>927</v>
+        <v>2801</v>
       </c>
       <c r="E17" s="4">
-        <v>927</v>
+        <v>939</v>
       </c>
       <c r="F17" s="4">
         <v>927</v>
       </c>
       <c r="G17" s="4">
-        <v>0</v>
+        <v>4.9889999999999999</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
+        <v>5</v>
+      </c>
+      <c r="B18" s="4">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4">
+        <v>934</v>
+      </c>
+      <c r="D18" s="4">
+        <v>934</v>
+      </c>
+      <c r="E18" s="4">
+        <v>934</v>
+      </c>
+      <c r="F18" s="4">
+        <v>934</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>6</v>
+      </c>
+      <c r="B19" s="4">
+        <v>2</v>
+      </c>
+      <c r="C19" s="4">
+        <v>927</v>
+      </c>
+      <c r="D19" s="4">
+        <v>927</v>
+      </c>
+      <c r="E19" s="4">
+        <v>927</v>
+      </c>
+      <c r="F19" s="4">
+        <v>927</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>7</v>
       </c>
-      <c r="B18" s="4">
-        <v>2</v>
-      </c>
-      <c r="C18" s="4">
+      <c r="B20" s="4">
+        <v>2</v>
+      </c>
+      <c r="C20" s="4">
         <v>923</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D20" s="4">
         <v>923</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E20" s="4">
         <v>923</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F20" s="4">
         <v>923</v>
       </c>
-      <c r="G18" s="4">
-        <v>0</v>
-      </c>
-      <c r="H18" s="4" t="s">
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I20" s="4" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" t="s">
+        <v>5</v>
+      </c>
+      <c r="H38" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>958</v>
+      </c>
+      <c r="D39">
+        <v>958</v>
+      </c>
+      <c r="E39">
+        <v>958</v>
+      </c>
+      <c r="F39">
+        <v>958</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>8</v>
+      </c>
+      <c r="I39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>7</v>
+      </c>
+      <c r="C40">
+        <v>955</v>
+      </c>
+      <c r="D40">
+        <v>14318</v>
+      </c>
+      <c r="E40">
+        <v>984</v>
+      </c>
+      <c r="F40">
+        <v>936</v>
+      </c>
+      <c r="G40">
+        <v>11.927</v>
+      </c>
+      <c r="H40" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>6</v>
+      </c>
+      <c r="C41">
+        <v>953</v>
+      </c>
+      <c r="D41">
+        <v>7625</v>
+      </c>
+      <c r="E41">
+        <v>976</v>
+      </c>
+      <c r="F41">
+        <v>937</v>
+      </c>
+      <c r="G41">
+        <v>13.393000000000001</v>
+      </c>
+      <c r="H41" t="s">
+        <v>43</v>
+      </c>
+      <c r="I41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>940</v>
+      </c>
+      <c r="D42">
+        <v>2821</v>
+      </c>
+      <c r="E42">
+        <v>954</v>
+      </c>
+      <c r="F42">
+        <v>933</v>
+      </c>
+      <c r="G42">
+        <v>9.6720000000000006</v>
+      </c>
+      <c r="H42" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>937</v>
+      </c>
+      <c r="D43">
+        <v>1874</v>
+      </c>
+      <c r="E43">
+        <v>939</v>
+      </c>
+      <c r="F43">
+        <v>935</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43" t="s">
+        <v>45</v>
+      </c>
+      <c r="I43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>5</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>934</v>
+      </c>
+      <c r="D44">
+        <v>934</v>
+      </c>
+      <c r="E44">
+        <v>934</v>
+      </c>
+      <c r="F44">
+        <v>934</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>21</v>
+      </c>
+      <c r="D48">
+        <v>984</v>
+      </c>
+      <c r="E48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>43</v>
+      </c>
+      <c r="C49">
+        <v>57</v>
+      </c>
+      <c r="D49">
+        <v>976</v>
+      </c>
+      <c r="E49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50">
+        <v>59</v>
+      </c>
+      <c r="C50">
+        <v>77</v>
+      </c>
+      <c r="D50">
+        <v>969</v>
+      </c>
+      <c r="E50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51">
+        <v>40</v>
+      </c>
+      <c r="C51">
+        <v>43</v>
+      </c>
+      <c r="D51">
+        <v>969</v>
+      </c>
+      <c r="E51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>4</v>
+      </c>
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>66</v>
+      </c>
+      <c r="D52">
+        <v>967</v>
+      </c>
+      <c r="E52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>5</v>
+      </c>
+      <c r="B53">
+        <v>30</v>
+      </c>
+      <c r="C53">
+        <v>40</v>
+      </c>
+      <c r="D53">
+        <v>963</v>
+      </c>
+      <c r="E53" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>6</v>
+      </c>
+      <c r="B54">
+        <v>66</v>
+      </c>
+      <c r="C54">
+        <v>77</v>
+      </c>
+      <c r="D54">
+        <v>959</v>
+      </c>
+      <c r="E54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>7</v>
+      </c>
+      <c r="B55">
+        <v>6</v>
+      </c>
+      <c r="C55">
+        <v>15</v>
+      </c>
+      <c r="D55">
+        <v>958</v>
+      </c>
+      <c r="E55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>8</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56">
+        <v>59</v>
+      </c>
+      <c r="D56">
+        <v>957</v>
+      </c>
+      <c r="E56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>9</v>
+      </c>
+      <c r="B57">
+        <v>59</v>
+      </c>
+      <c r="C57">
+        <v>82</v>
+      </c>
+      <c r="D57">
+        <v>957</v>
+      </c>
+      <c r="E57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>47</v>
+      </c>
+      <c r="B76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>2</v>
+      </c>
+      <c r="E76" t="s">
+        <v>3</v>
+      </c>
+      <c r="F76" t="s">
+        <v>4</v>
+      </c>
+      <c r="G76" t="s">
+        <v>5</v>
+      </c>
+      <c r="H76" t="s">
+        <v>6</v>
+      </c>
+      <c r="I76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="C77">
+        <v>934</v>
+      </c>
+      <c r="D77">
+        <v>3738</v>
+      </c>
+      <c r="E77">
+        <v>954</v>
+      </c>
+      <c r="F77">
+        <v>917</v>
+      </c>
+      <c r="G77">
+        <v>13.124000000000001</v>
+      </c>
+      <c r="H77" t="s">
+        <v>14</v>
+      </c>
+      <c r="I77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78">
+        <v>18</v>
+      </c>
+      <c r="C78">
+        <v>933</v>
+      </c>
+      <c r="D78">
+        <v>49469</v>
+      </c>
+      <c r="E78">
+        <v>984</v>
+      </c>
+      <c r="F78">
+        <v>901</v>
+      </c>
+      <c r="G78">
+        <v>21.771000000000001</v>
+      </c>
+      <c r="H78" t="s">
+        <v>67</v>
+      </c>
+      <c r="I78" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>2</v>
+      </c>
+      <c r="B79">
+        <v>11</v>
+      </c>
+      <c r="C79">
+        <v>923</v>
+      </c>
+      <c r="D79">
+        <v>13838</v>
+      </c>
+      <c r="E79">
+        <v>958</v>
+      </c>
+      <c r="F79">
+        <v>901</v>
+      </c>
+      <c r="G79">
+        <v>16.041</v>
+      </c>
+      <c r="H79" t="s">
+        <v>69</v>
+      </c>
+      <c r="I79" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>3</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80">
+        <v>918</v>
+      </c>
+      <c r="D80">
+        <v>1836</v>
+      </c>
+      <c r="E80">
+        <v>934</v>
+      </c>
+      <c r="F80">
+        <v>902</v>
+      </c>
+      <c r="G80">
+        <v>16</v>
+      </c>
+      <c r="H80" t="s">
+        <v>71</v>
+      </c>
+      <c r="I80" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>4</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81">
+        <v>916</v>
+      </c>
+      <c r="D81">
+        <v>916</v>
+      </c>
+      <c r="E81">
+        <v>916</v>
+      </c>
+      <c r="F81">
+        <v>916</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81" t="s">
+        <v>73</v>
+      </c>
+      <c r="I81" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>5</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82">
+        <v>916</v>
+      </c>
+      <c r="D82">
+        <v>916</v>
+      </c>
+      <c r="E82">
+        <v>916</v>
+      </c>
+      <c r="F82">
+        <v>916</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82" t="s">
+        <v>75</v>
+      </c>
+      <c r="I82" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>6</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83">
+        <v>915</v>
+      </c>
+      <c r="D83">
+        <v>915</v>
+      </c>
+      <c r="E83">
+        <v>915</v>
+      </c>
+      <c r="F83">
+        <v>915</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83" t="s">
+        <v>77</v>
+      </c>
+      <c r="I83" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>7</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84">
+        <v>913</v>
+      </c>
+      <c r="D84">
+        <v>913</v>
+      </c>
+      <c r="E84">
+        <v>913</v>
+      </c>
+      <c r="F84">
+        <v>913</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84" t="s">
+        <v>79</v>
+      </c>
+      <c r="I84" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>8</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85">
+        <v>913</v>
+      </c>
+      <c r="D85">
+        <v>913</v>
+      </c>
+      <c r="E85">
+        <v>913</v>
+      </c>
+      <c r="F85">
+        <v>913</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85" t="s">
+        <v>81</v>
+      </c>
+      <c r="I85" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>0</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1</v>
+      </c>
+      <c r="D103" t="s">
+        <v>2</v>
+      </c>
+      <c r="E103" t="s">
+        <v>3</v>
+      </c>
+      <c r="F103" t="s">
+        <v>4</v>
+      </c>
+      <c r="G103" t="s">
+        <v>5</v>
+      </c>
+      <c r="H103" t="s">
+        <v>6</v>
+      </c>
+      <c r="I103" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>0</v>
+      </c>
+      <c r="B104">
+        <v>2</v>
+      </c>
+      <c r="C104">
+        <v>979</v>
+      </c>
+      <c r="D104">
+        <v>979</v>
+      </c>
+      <c r="E104">
+        <v>979</v>
+      </c>
+      <c r="F104">
+        <v>979</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104" t="s">
+        <v>90</v>
+      </c>
+      <c r="I104" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>1</v>
+      </c>
+      <c r="B105">
+        <v>2</v>
+      </c>
+      <c r="C105">
+        <v>970</v>
+      </c>
+      <c r="D105">
+        <v>970</v>
+      </c>
+      <c r="E105">
+        <v>970</v>
+      </c>
+      <c r="F105">
+        <v>970</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105" t="s">
+        <v>92</v>
+      </c>
+      <c r="I105" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>2</v>
+      </c>
+      <c r="B106">
+        <v>2</v>
+      </c>
+      <c r="C106">
+        <v>939</v>
+      </c>
+      <c r="D106">
+        <v>939</v>
+      </c>
+      <c r="E106">
+        <v>939</v>
+      </c>
+      <c r="F106">
+        <v>939</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106" t="s">
+        <v>94</v>
+      </c>
+      <c r="I106" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>3</v>
+      </c>
+      <c r="B107">
+        <v>3</v>
+      </c>
+      <c r="C107">
+        <v>934</v>
+      </c>
+      <c r="D107">
+        <v>1868</v>
+      </c>
+      <c r="E107">
+        <v>935</v>
+      </c>
+      <c r="F107">
+        <v>933</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="H107" t="s">
+        <v>95</v>
+      </c>
+      <c r="I107" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>4</v>
+      </c>
+      <c r="B108">
+        <v>4</v>
+      </c>
+      <c r="C108">
+        <v>931</v>
+      </c>
+      <c r="D108">
+        <v>2794</v>
+      </c>
+      <c r="E108">
+        <v>946</v>
+      </c>
+      <c r="F108">
+        <v>921</v>
+      </c>
+      <c r="G108">
+        <v>10.656000000000001</v>
+      </c>
+      <c r="H108" t="s">
+        <v>97</v>
+      </c>
+      <c r="I108" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>5</v>
+      </c>
+      <c r="B109">
+        <v>2</v>
+      </c>
+      <c r="C109">
+        <v>925</v>
+      </c>
+      <c r="D109">
+        <v>925</v>
+      </c>
+      <c r="E109">
+        <v>925</v>
+      </c>
+      <c r="F109">
+        <v>925</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109" t="s">
+        <v>99</v>
+      </c>
+      <c r="I109" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>6</v>
+      </c>
+      <c r="B110">
+        <v>2</v>
+      </c>
+      <c r="C110">
+        <v>923</v>
+      </c>
+      <c r="D110">
+        <v>923</v>
+      </c>
+      <c r="E110">
+        <v>923</v>
+      </c>
+      <c r="F110">
+        <v>923</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110" t="s">
+        <v>101</v>
+      </c>
+      <c r="I110" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>7</v>
+      </c>
+      <c r="B111">
+        <v>2</v>
+      </c>
+      <c r="C111">
+        <v>922</v>
+      </c>
+      <c r="D111">
+        <v>922</v>
+      </c>
+      <c r="E111">
+        <v>922</v>
+      </c>
+      <c r="F111">
+        <v>922</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111" t="s">
+        <v>103</v>
+      </c>
+      <c r="I111" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>49</v>
+      </c>
+      <c r="C114" t="s">
+        <v>50</v>
+      </c>
+      <c r="D114" t="s">
+        <v>51</v>
+      </c>
+      <c r="E114" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>0</v>
+      </c>
+      <c r="B115">
+        <v>9</v>
+      </c>
+      <c r="C115">
+        <v>18</v>
+      </c>
+      <c r="D115">
+        <v>979</v>
+      </c>
+      <c r="E115" t="s">
+        <v>91</v>
+      </c>
+      <c r="I115" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>1</v>
+      </c>
+      <c r="B116">
+        <v>8</v>
+      </c>
+      <c r="C116">
+        <v>80</v>
+      </c>
+      <c r="D116">
+        <v>970</v>
+      </c>
+      <c r="E116" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>2</v>
+      </c>
+      <c r="B117">
+        <v>7</v>
+      </c>
+      <c r="C117">
+        <v>14</v>
+      </c>
+      <c r="D117">
+        <v>946</v>
+      </c>
+      <c r="E117" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>3</v>
+      </c>
+      <c r="B118">
+        <v>59</v>
+      </c>
+      <c r="C118">
+        <v>77</v>
+      </c>
+      <c r="D118">
+        <v>939</v>
+      </c>
+      <c r="E118" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>4</v>
+      </c>
+      <c r="B119">
+        <v>43</v>
+      </c>
+      <c r="C119">
+        <v>57</v>
+      </c>
+      <c r="D119">
+        <v>935</v>
+      </c>
+      <c r="E119" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>5</v>
+      </c>
+      <c r="B120">
+        <v>40</v>
+      </c>
+      <c r="C120">
+        <v>43</v>
+      </c>
+      <c r="D120">
+        <v>933</v>
+      </c>
+      <c r="E120" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>6</v>
+      </c>
+      <c r="B121">
+        <v>7</v>
+      </c>
+      <c r="C121">
+        <v>16</v>
+      </c>
+      <c r="D121">
+        <v>927</v>
+      </c>
+      <c r="E121" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>7</v>
+      </c>
+      <c r="B122">
+        <v>64</v>
+      </c>
+      <c r="C122">
+        <v>65</v>
+      </c>
+      <c r="D122">
+        <v>925</v>
+      </c>
+      <c r="E122" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>8</v>
+      </c>
+      <c r="B123">
+        <v>2</v>
+      </c>
+      <c r="C123">
+        <v>11</v>
+      </c>
+      <c r="D123">
+        <v>923</v>
+      </c>
+      <c r="E123" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>9</v>
+      </c>
+      <c r="B124">
+        <v>4</v>
+      </c>
+      <c r="C124">
+        <v>21</v>
+      </c>
+      <c r="D124">
+        <v>922</v>
+      </c>
+      <c r="E124" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>0</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1</v>
+      </c>
+      <c r="D142" t="s">
+        <v>2</v>
+      </c>
+      <c r="E142" t="s">
+        <v>3</v>
+      </c>
+      <c r="F142" t="s">
+        <v>4</v>
+      </c>
+      <c r="G142" t="s">
+        <v>5</v>
+      </c>
+      <c r="H142" t="s">
+        <v>6</v>
+      </c>
+      <c r="I142" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>0</v>
+      </c>
+      <c r="B143">
+        <v>2</v>
+      </c>
+      <c r="C143">
+        <v>992</v>
+      </c>
+      <c r="D143">
+        <v>992</v>
+      </c>
+      <c r="E143">
+        <v>992</v>
+      </c>
+      <c r="F143">
+        <v>992</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143" t="s">
+        <v>92</v>
+      </c>
+      <c r="I143" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>49</v>
+      </c>
+      <c r="C146" t="s">
+        <v>50</v>
+      </c>
+      <c r="D146" t="s">
+        <v>51</v>
+      </c>
+      <c r="E146" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>0</v>
+      </c>
+      <c r="B147">
+        <v>8</v>
+      </c>
+      <c r="C147">
+        <v>80</v>
+      </c>
+      <c r="D147">
+        <v>992</v>
+      </c>
+      <c r="E147" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>1</v>
+      </c>
+      <c r="B148">
+        <v>21</v>
+      </c>
+      <c r="C148">
+        <v>43</v>
+      </c>
+      <c r="D148">
+        <v>820</v>
+      </c>
+      <c r="E148" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>2</v>
+      </c>
+      <c r="B149">
+        <v>21</v>
+      </c>
+      <c r="C149">
+        <v>40</v>
+      </c>
+      <c r="D149">
+        <v>813</v>
+      </c>
+      <c r="E149" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>3</v>
+      </c>
+      <c r="B150">
+        <v>21</v>
+      </c>
+      <c r="C150">
+        <v>57</v>
+      </c>
+      <c r="D150">
+        <v>803</v>
+      </c>
+      <c r="E150" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>4</v>
+      </c>
+      <c r="B151">
+        <v>59</v>
+      </c>
+      <c r="C151">
+        <v>77</v>
+      </c>
+      <c r="D151">
+        <v>802</v>
+      </c>
+      <c r="E151" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>5</v>
+      </c>
+      <c r="B152">
+        <v>40</v>
+      </c>
+      <c r="C152">
+        <v>62</v>
+      </c>
+      <c r="D152">
+        <v>801</v>
+      </c>
+      <c r="E152" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>6</v>
+      </c>
+      <c r="B153">
+        <v>2</v>
+      </c>
+      <c r="C153">
+        <v>62</v>
+      </c>
+      <c r="D153">
+        <v>796</v>
+      </c>
+      <c r="E153" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>7</v>
+      </c>
+      <c r="B154">
+        <v>40</v>
+      </c>
+      <c r="C154">
+        <v>43</v>
+      </c>
+      <c r="D154">
+        <v>794</v>
+      </c>
+      <c r="E154" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>8</v>
+      </c>
+      <c r="B155">
+        <v>4</v>
+      </c>
+      <c r="C155">
+        <v>21</v>
+      </c>
+      <c r="D155">
+        <v>792</v>
+      </c>
+      <c r="E155" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>9</v>
+      </c>
+      <c r="B156">
+        <v>43</v>
+      </c>
+      <c r="C156">
+        <v>57</v>
+      </c>
+      <c r="D156">
+        <v>789</v>
+      </c>
+      <c r="E156" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>0</v>
+      </c>
+      <c r="C174" t="s">
+        <v>1</v>
+      </c>
+      <c r="D174" t="s">
+        <v>2</v>
+      </c>
+      <c r="E174" t="s">
+        <v>3</v>
+      </c>
+      <c r="F174" t="s">
+        <v>4</v>
+      </c>
+      <c r="G174" t="s">
+        <v>5</v>
+      </c>
+      <c r="H174" t="s">
+        <v>6</v>
+      </c>
+      <c r="I174" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>0</v>
+      </c>
+      <c r="B175">
+        <v>2</v>
+      </c>
+      <c r="C175">
+        <v>992</v>
+      </c>
+      <c r="D175">
+        <v>992</v>
+      </c>
+      <c r="E175">
+        <v>992</v>
+      </c>
+      <c r="F175">
+        <v>992</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="H175" t="s">
+        <v>92</v>
+      </c>
+      <c r="I175" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>1</v>
+      </c>
+      <c r="B176">
+        <v>3</v>
+      </c>
+      <c r="C176">
+        <v>790</v>
+      </c>
+      <c r="D176">
+        <v>1580</v>
+      </c>
+      <c r="E176">
+        <v>802</v>
+      </c>
+      <c r="F176">
+        <v>778</v>
+      </c>
+      <c r="G176">
+        <v>12</v>
+      </c>
+      <c r="H176" t="s">
+        <v>123</v>
+      </c>
+      <c r="I176" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>2</v>
+      </c>
+      <c r="B177">
+        <v>10</v>
+      </c>
+      <c r="C177">
+        <v>784</v>
+      </c>
+      <c r="D177">
+        <v>12537</v>
+      </c>
+      <c r="E177">
+        <v>820</v>
+      </c>
+      <c r="F177">
+        <v>758</v>
+      </c>
+      <c r="G177">
+        <v>19.748000000000001</v>
+      </c>
+      <c r="H177" t="s">
+        <v>125</v>
+      </c>
+      <c r="I177" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
+        <v>0</v>
+      </c>
+      <c r="C195" t="s">
+        <v>1</v>
+      </c>
+      <c r="D195" t="s">
+        <v>2</v>
+      </c>
+      <c r="E195" t="s">
+        <v>3</v>
+      </c>
+      <c r="F195" t="s">
+        <v>4</v>
+      </c>
+      <c r="G195" t="s">
+        <v>5</v>
+      </c>
+      <c r="H195" t="s">
+        <v>6</v>
+      </c>
+      <c r="I195" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>0</v>
+      </c>
+      <c r="B196">
+        <v>2</v>
+      </c>
+      <c r="C196">
+        <v>999</v>
+      </c>
+      <c r="D196">
+        <v>999</v>
+      </c>
+      <c r="E196">
+        <v>999</v>
+      </c>
+      <c r="F196">
+        <v>999</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+      <c r="H196" t="s">
+        <v>92</v>
+      </c>
+      <c r="I196" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>1</v>
+      </c>
+      <c r="B197">
+        <v>11</v>
+      </c>
+      <c r="C197">
+        <v>926</v>
+      </c>
+      <c r="D197">
+        <v>22228</v>
+      </c>
+      <c r="E197">
+        <v>956</v>
+      </c>
+      <c r="F197">
+        <v>902</v>
+      </c>
+      <c r="G197">
+        <v>17.033000000000001</v>
+      </c>
+      <c r="H197" t="s">
+        <v>131</v>
+      </c>
+      <c r="I197" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>2</v>
+      </c>
+      <c r="B198">
+        <v>4</v>
+      </c>
+      <c r="C198">
+        <v>918</v>
+      </c>
+      <c r="D198">
+        <v>4589</v>
+      </c>
+      <c r="E198">
+        <v>949</v>
+      </c>
+      <c r="F198">
+        <v>903</v>
+      </c>
+      <c r="G198">
+        <v>16.63</v>
+      </c>
+      <c r="H198" t="s">
+        <v>133</v>
+      </c>
+      <c r="I198" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
+        <v>49</v>
+      </c>
+      <c r="C201" t="s">
+        <v>50</v>
+      </c>
+      <c r="D201" t="s">
+        <v>51</v>
+      </c>
+      <c r="E201" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>0</v>
+      </c>
+      <c r="B202">
+        <v>8</v>
+      </c>
+      <c r="C202">
+        <v>80</v>
+      </c>
+      <c r="D202">
+        <v>999</v>
+      </c>
+      <c r="E202" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>1</v>
+      </c>
+      <c r="B203">
+        <v>21</v>
+      </c>
+      <c r="C203">
+        <v>43</v>
+      </c>
+      <c r="D203">
+        <v>956</v>
+      </c>
+      <c r="E203" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>2</v>
+      </c>
+      <c r="B204">
+        <v>21</v>
+      </c>
+      <c r="C204">
+        <v>40</v>
+      </c>
+      <c r="D204">
+        <v>952</v>
+      </c>
+      <c r="E204" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>3</v>
+      </c>
+      <c r="B205">
+        <v>59</v>
+      </c>
+      <c r="C205">
+        <v>77</v>
+      </c>
+      <c r="D205">
+        <v>949</v>
+      </c>
+      <c r="E205" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>4</v>
+      </c>
+      <c r="B206">
+        <v>21</v>
+      </c>
+      <c r="C206">
+        <v>57</v>
+      </c>
+      <c r="D206">
+        <v>949</v>
+      </c>
+      <c r="E206" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>5</v>
+      </c>
+      <c r="B207">
+        <v>2</v>
+      </c>
+      <c r="C207">
+        <v>62</v>
+      </c>
+      <c r="D207">
+        <v>947</v>
+      </c>
+      <c r="E207" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>6</v>
+      </c>
+      <c r="B208">
+        <v>40</v>
+      </c>
+      <c r="C208">
+        <v>62</v>
+      </c>
+      <c r="D208">
+        <v>946</v>
+      </c>
+      <c r="E208" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>7</v>
+      </c>
+      <c r="B209">
+        <v>43</v>
+      </c>
+      <c r="C209">
+        <v>57</v>
+      </c>
+      <c r="D209">
+        <v>942</v>
+      </c>
+      <c r="E209" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>8</v>
+      </c>
+      <c r="B210">
+        <v>40</v>
+      </c>
+      <c r="C210">
+        <v>43</v>
+      </c>
+      <c r="D210">
+        <v>940</v>
+      </c>
+      <c r="E210" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>9</v>
+      </c>
+      <c r="B211">
+        <v>4</v>
+      </c>
+      <c r="C211">
+        <v>21</v>
+      </c>
+      <c r="D211">
+        <v>938</v>
+      </c>
+      <c r="E211" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B230" t="s">
+        <v>0</v>
+      </c>
+      <c r="C230" t="s">
+        <v>1</v>
+      </c>
+      <c r="D230" t="s">
+        <v>2</v>
+      </c>
+      <c r="E230" t="s">
+        <v>3</v>
+      </c>
+      <c r="F230" t="s">
+        <v>4</v>
+      </c>
+      <c r="G230" t="s">
+        <v>5</v>
+      </c>
+      <c r="H230" t="s">
+        <v>6</v>
+      </c>
+      <c r="I230" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>0</v>
+      </c>
+      <c r="B231">
+        <v>11</v>
+      </c>
+      <c r="C231">
+        <v>926</v>
+      </c>
+      <c r="D231">
+        <v>22228</v>
+      </c>
+      <c r="E231">
+        <v>956</v>
+      </c>
+      <c r="F231">
+        <v>902</v>
+      </c>
+      <c r="G231">
+        <v>17.033000000000001</v>
+      </c>
+      <c r="H231" t="s">
+        <v>131</v>
+      </c>
+      <c r="I231" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>1</v>
+      </c>
+      <c r="B232">
+        <v>4</v>
+      </c>
+      <c r="C232">
+        <v>918</v>
+      </c>
+      <c r="D232">
+        <v>4589</v>
+      </c>
+      <c r="E232">
+        <v>949</v>
+      </c>
+      <c r="F232">
+        <v>903</v>
+      </c>
+      <c r="G232">
+        <v>16.63</v>
+      </c>
+      <c r="H232" t="s">
+        <v>133</v>
+      </c>
+      <c r="I232" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B235" t="s">
+        <v>49</v>
+      </c>
+      <c r="C235" t="s">
+        <v>50</v>
+      </c>
+      <c r="D235" t="s">
+        <v>51</v>
+      </c>
+      <c r="E235" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>0</v>
+      </c>
+      <c r="B236">
+        <v>21</v>
+      </c>
+      <c r="C236">
+        <v>43</v>
+      </c>
+      <c r="D236">
+        <v>956</v>
+      </c>
+      <c r="E236" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>1</v>
+      </c>
+      <c r="B237">
+        <v>21</v>
+      </c>
+      <c r="C237">
+        <v>40</v>
+      </c>
+      <c r="D237">
+        <v>952</v>
+      </c>
+      <c r="E237" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>2</v>
+      </c>
+      <c r="B238">
+        <v>21</v>
+      </c>
+      <c r="C238">
+        <v>57</v>
+      </c>
+      <c r="D238">
+        <v>949</v>
+      </c>
+      <c r="E238" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>3</v>
+      </c>
+      <c r="B239">
+        <v>59</v>
+      </c>
+      <c r="C239">
+        <v>77</v>
+      </c>
+      <c r="D239">
+        <v>949</v>
+      </c>
+      <c r="E239" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>4</v>
+      </c>
+      <c r="B240">
+        <v>2</v>
+      </c>
+      <c r="C240">
+        <v>62</v>
+      </c>
+      <c r="D240">
+        <v>947</v>
+      </c>
+      <c r="E240" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>5</v>
+      </c>
+      <c r="B241">
+        <v>40</v>
+      </c>
+      <c r="C241">
+        <v>62</v>
+      </c>
+      <c r="D241">
+        <v>946</v>
+      </c>
+      <c r="E241" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>6</v>
+      </c>
+      <c r="B242">
+        <v>43</v>
+      </c>
+      <c r="C242">
+        <v>57</v>
+      </c>
+      <c r="D242">
+        <v>942</v>
+      </c>
+      <c r="E242" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>7</v>
+      </c>
+      <c r="B243">
+        <v>40</v>
+      </c>
+      <c r="C243">
+        <v>43</v>
+      </c>
+      <c r="D243">
+        <v>940</v>
+      </c>
+      <c r="E243" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>8</v>
+      </c>
+      <c r="B244">
+        <v>4</v>
+      </c>
+      <c r="C244">
+        <v>21</v>
+      </c>
+      <c r="D244">
+        <v>938</v>
+      </c>
+      <c r="E244" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>9</v>
+      </c>
+      <c r="B245">
+        <v>5</v>
+      </c>
+      <c r="C245">
+        <v>62</v>
+      </c>
+      <c r="D245">
+        <v>936</v>
+      </c>
+      <c r="E245" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B263" t="s">
+        <v>0</v>
+      </c>
+      <c r="C263" t="s">
+        <v>1</v>
+      </c>
+      <c r="D263" t="s">
+        <v>2</v>
+      </c>
+      <c r="E263" t="s">
+        <v>3</v>
+      </c>
+      <c r="F263" t="s">
+        <v>4</v>
+      </c>
+      <c r="G263" t="s">
+        <v>5</v>
+      </c>
+      <c r="H263" t="s">
+        <v>6</v>
+      </c>
+      <c r="I263" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>0</v>
+      </c>
+      <c r="B264">
+        <v>2</v>
+      </c>
+      <c r="C264">
+        <v>999</v>
+      </c>
+      <c r="D264">
+        <v>999</v>
+      </c>
+      <c r="E264">
+        <v>999</v>
+      </c>
+      <c r="F264">
+        <v>999</v>
+      </c>
+      <c r="G264">
+        <v>0</v>
+      </c>
+      <c r="H264" t="s">
+        <v>92</v>
+      </c>
+      <c r="I264" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>1</v>
+      </c>
+      <c r="B265">
+        <v>2</v>
+      </c>
+      <c r="C265">
+        <v>975</v>
+      </c>
+      <c r="D265">
+        <v>975</v>
+      </c>
+      <c r="E265">
+        <v>975</v>
+      </c>
+      <c r="F265">
+        <v>975</v>
+      </c>
+      <c r="G265">
+        <v>0</v>
+      </c>
+      <c r="H265" t="s">
+        <v>144</v>
+      </c>
+      <c r="I265" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>2</v>
+      </c>
+      <c r="B266">
+        <v>11</v>
+      </c>
+      <c r="C266">
+        <v>926</v>
+      </c>
+      <c r="D266">
+        <v>22228</v>
+      </c>
+      <c r="E266">
+        <v>956</v>
+      </c>
+      <c r="F266">
+        <v>902</v>
+      </c>
+      <c r="G266">
+        <v>17.033000000000001</v>
+      </c>
+      <c r="H266" t="s">
+        <v>131</v>
+      </c>
+      <c r="I266" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>3</v>
+      </c>
+      <c r="B267">
+        <v>4</v>
+      </c>
+      <c r="C267">
+        <v>918</v>
+      </c>
+      <c r="D267">
+        <v>4589</v>
+      </c>
+      <c r="E267">
+        <v>949</v>
+      </c>
+      <c r="F267">
+        <v>903</v>
+      </c>
+      <c r="G267">
+        <v>16.63</v>
+      </c>
+      <c r="H267" t="s">
+        <v>133</v>
+      </c>
+      <c r="I267" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B270" t="s">
+        <v>49</v>
+      </c>
+      <c r="C270" t="s">
+        <v>50</v>
+      </c>
+      <c r="D270" t="s">
+        <v>51</v>
+      </c>
+      <c r="E270" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>0</v>
+      </c>
+      <c r="B271">
+        <v>8</v>
+      </c>
+      <c r="C271">
+        <v>80</v>
+      </c>
+      <c r="D271">
+        <v>999</v>
+      </c>
+      <c r="E271" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>1</v>
+      </c>
+      <c r="B272">
+        <v>17</v>
+      </c>
+      <c r="C272">
+        <v>68</v>
+      </c>
+      <c r="D272">
+        <v>975</v>
+      </c>
+      <c r="E272" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>2</v>
+      </c>
+      <c r="B273">
+        <v>21</v>
+      </c>
+      <c r="C273">
+        <v>43</v>
+      </c>
+      <c r="D273">
+        <v>956</v>
+      </c>
+      <c r="E273" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>3</v>
+      </c>
+      <c r="B274">
+        <v>21</v>
+      </c>
+      <c r="C274">
+        <v>40</v>
+      </c>
+      <c r="D274">
+        <v>952</v>
+      </c>
+      <c r="E274" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>4</v>
+      </c>
+      <c r="B275">
+        <v>21</v>
+      </c>
+      <c r="C275">
+        <v>57</v>
+      </c>
+      <c r="D275">
+        <v>949</v>
+      </c>
+      <c r="E275" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>5</v>
+      </c>
+      <c r="B276">
+        <v>59</v>
+      </c>
+      <c r="C276">
+        <v>77</v>
+      </c>
+      <c r="D276">
+        <v>949</v>
+      </c>
+      <c r="E276" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>6</v>
+      </c>
+      <c r="B277">
+        <v>2</v>
+      </c>
+      <c r="C277">
+        <v>62</v>
+      </c>
+      <c r="D277">
+        <v>947</v>
+      </c>
+      <c r="E277" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>7</v>
+      </c>
+      <c r="B278">
+        <v>40</v>
+      </c>
+      <c r="C278">
+        <v>62</v>
+      </c>
+      <c r="D278">
+        <v>946</v>
+      </c>
+      <c r="E278" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>8</v>
+      </c>
+      <c r="B279">
+        <v>43</v>
+      </c>
+      <c r="C279">
+        <v>57</v>
+      </c>
+      <c r="D279">
+        <v>942</v>
+      </c>
+      <c r="E279" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>9</v>
+      </c>
+      <c r="B280">
+        <v>40</v>
+      </c>
+      <c r="C280">
+        <v>43</v>
+      </c>
+      <c r="D280">
+        <v>940</v>
+      </c>
+      <c r="E280" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B298" t="s">
+        <v>0</v>
+      </c>
+      <c r="C298" t="s">
+        <v>1</v>
+      </c>
+      <c r="D298" t="s">
+        <v>2</v>
+      </c>
+      <c r="E298" t="s">
+        <v>3</v>
+      </c>
+      <c r="F298" t="s">
+        <v>4</v>
+      </c>
+      <c r="G298" t="s">
+        <v>5</v>
+      </c>
+      <c r="H298" t="s">
+        <v>6</v>
+      </c>
+      <c r="I298" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>0</v>
+      </c>
+      <c r="B299">
+        <v>2</v>
+      </c>
+      <c r="C299">
+        <v>948</v>
+      </c>
+      <c r="D299">
+        <v>948</v>
+      </c>
+      <c r="E299">
+        <v>948</v>
+      </c>
+      <c r="F299">
+        <v>948</v>
+      </c>
+      <c r="G299">
+        <v>0</v>
+      </c>
+      <c r="H299" t="s">
+        <v>149</v>
+      </c>
+      <c r="I299" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>1</v>
+      </c>
+      <c r="B300">
+        <v>2</v>
+      </c>
+      <c r="C300">
+        <v>931</v>
+      </c>
+      <c r="D300">
+        <v>931</v>
+      </c>
+      <c r="E300">
+        <v>931</v>
+      </c>
+      <c r="F300">
+        <v>931</v>
+      </c>
+      <c r="G300">
+        <v>0</v>
+      </c>
+      <c r="H300" t="s">
+        <v>151</v>
+      </c>
+      <c r="I300" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>2</v>
+      </c>
+      <c r="B301">
+        <v>16</v>
+      </c>
+      <c r="C301">
+        <v>928</v>
+      </c>
+      <c r="D301">
+        <v>34326</v>
+      </c>
+      <c r="E301">
+        <v>956</v>
+      </c>
+      <c r="F301">
+        <v>902</v>
+      </c>
+      <c r="G301">
+        <v>16.324999999999999</v>
+      </c>
+      <c r="H301" t="s">
+        <v>153</v>
+      </c>
+      <c r="I301" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>3</v>
+      </c>
+      <c r="B302">
+        <v>2</v>
+      </c>
+      <c r="C302">
+        <v>919</v>
+      </c>
+      <c r="D302">
+        <v>919</v>
+      </c>
+      <c r="E302">
+        <v>919</v>
+      </c>
+      <c r="F302">
+        <v>919</v>
+      </c>
+      <c r="G302">
+        <v>0</v>
+      </c>
+      <c r="H302" t="s">
+        <v>155</v>
+      </c>
+      <c r="I302" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B306" t="s">
+        <v>49</v>
+      </c>
+      <c r="C306" t="s">
+        <v>50</v>
+      </c>
+      <c r="D306" t="s">
+        <v>51</v>
+      </c>
+      <c r="E306" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>0</v>
+      </c>
+      <c r="B307">
+        <v>21</v>
+      </c>
+      <c r="C307">
+        <v>43</v>
+      </c>
+      <c r="D307">
+        <v>956</v>
+      </c>
+      <c r="E307" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>1</v>
+      </c>
+      <c r="B308">
+        <v>59</v>
+      </c>
+      <c r="C308">
+        <v>66</v>
+      </c>
+      <c r="D308">
+        <v>954</v>
+      </c>
+      <c r="E308" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>2</v>
+      </c>
+      <c r="B309">
+        <v>59</v>
+      </c>
+      <c r="C309">
+        <v>82</v>
+      </c>
+      <c r="D309">
+        <v>953</v>
+      </c>
+      <c r="E309" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>3</v>
+      </c>
+      <c r="B310">
+        <v>21</v>
+      </c>
+      <c r="C310">
+        <v>40</v>
+      </c>
+      <c r="D310">
+        <v>952</v>
+      </c>
+      <c r="E310" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>4</v>
+      </c>
+      <c r="B311">
+        <v>4</v>
+      </c>
+      <c r="C311">
+        <v>21</v>
+      </c>
+      <c r="D311">
+        <v>952</v>
+      </c>
+      <c r="E311" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>5</v>
+      </c>
+      <c r="B312">
+        <v>21</v>
+      </c>
+      <c r="C312">
+        <v>57</v>
+      </c>
+      <c r="D312">
+        <v>949</v>
+      </c>
+      <c r="E312" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>6</v>
+      </c>
+      <c r="B313">
+        <v>7</v>
+      </c>
+      <c r="C313">
+        <v>24</v>
+      </c>
+      <c r="D313">
+        <v>948</v>
+      </c>
+      <c r="E313" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>7</v>
+      </c>
+      <c r="B314">
+        <v>2</v>
+      </c>
+      <c r="C314">
+        <v>62</v>
+      </c>
+      <c r="D314">
+        <v>947</v>
+      </c>
+      <c r="E314" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>8</v>
+      </c>
+      <c r="B315">
+        <v>40</v>
+      </c>
+      <c r="C315">
+        <v>62</v>
+      </c>
+      <c r="D315">
+        <v>946</v>
+      </c>
+      <c r="E315" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>9</v>
+      </c>
+      <c r="B316">
+        <v>66</v>
+      </c>
+      <c r="C316">
+        <v>82</v>
+      </c>
+      <c r="D316">
+        <v>943</v>
+      </c>
+      <c r="E316" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A321" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A322" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A323" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="I323" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A324" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A327" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B334" t="s">
+        <v>0</v>
+      </c>
+      <c r="C334" t="s">
+        <v>1</v>
+      </c>
+      <c r="D334" t="s">
+        <v>2</v>
+      </c>
+      <c r="E334" t="s">
+        <v>3</v>
+      </c>
+      <c r="F334" t="s">
+        <v>4</v>
+      </c>
+      <c r="G334" t="s">
+        <v>5</v>
+      </c>
+      <c r="H334" t="s">
+        <v>6</v>
+      </c>
+      <c r="I334" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>0</v>
+      </c>
+      <c r="B335">
+        <v>7</v>
+      </c>
+      <c r="C335">
+        <v>958</v>
+      </c>
+      <c r="D335">
+        <v>18206</v>
+      </c>
+      <c r="E335">
+        <v>985</v>
+      </c>
+      <c r="F335">
+        <v>934</v>
+      </c>
+      <c r="G335">
+        <v>13.586</v>
+      </c>
+      <c r="H335" t="s">
+        <v>10</v>
+      </c>
+      <c r="I335" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>1</v>
+      </c>
+      <c r="B336">
+        <v>2</v>
+      </c>
+      <c r="C336">
+        <v>958</v>
+      </c>
+      <c r="D336">
+        <v>958</v>
+      </c>
+      <c r="E336">
+        <v>958</v>
+      </c>
+      <c r="F336">
+        <v>958</v>
+      </c>
+      <c r="G336">
+        <v>0</v>
+      </c>
+      <c r="H336" t="s">
+        <v>8</v>
+      </c>
+      <c r="I336" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>2</v>
+      </c>
+      <c r="B337">
+        <v>2</v>
+      </c>
+      <c r="C337">
+        <v>957</v>
+      </c>
+      <c r="D337">
+        <v>957</v>
+      </c>
+      <c r="E337">
+        <v>957</v>
+      </c>
+      <c r="F337">
+        <v>957</v>
+      </c>
+      <c r="G337">
+        <v>0</v>
+      </c>
+      <c r="H337" t="s">
+        <v>164</v>
+      </c>
+      <c r="I337" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>3</v>
+      </c>
+      <c r="B338">
+        <v>6</v>
+      </c>
+      <c r="C338">
+        <v>953</v>
+      </c>
+      <c r="D338">
+        <v>7625</v>
+      </c>
+      <c r="E338">
+        <v>976</v>
+      </c>
+      <c r="F338">
+        <v>937</v>
+      </c>
+      <c r="G338">
+        <v>13.393000000000001</v>
+      </c>
+      <c r="H338" t="s">
+        <v>43</v>
+      </c>
+      <c r="I338" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>4</v>
+      </c>
+      <c r="B339">
+        <v>4</v>
+      </c>
+      <c r="C339">
+        <v>940</v>
+      </c>
+      <c r="D339">
+        <v>2821</v>
+      </c>
+      <c r="E339">
+        <v>954</v>
+      </c>
+      <c r="F339">
+        <v>933</v>
+      </c>
+      <c r="G339">
+        <v>9.6720000000000006</v>
+      </c>
+      <c r="H339" t="s">
+        <v>14</v>
+      </c>
+      <c r="I339" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B342" t="s">
+        <v>49</v>
+      </c>
+      <c r="C342" t="s">
+        <v>50</v>
+      </c>
+      <c r="D342" t="s">
+        <v>51</v>
+      </c>
+      <c r="E342" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>0</v>
+      </c>
+      <c r="B343">
+        <v>4</v>
+      </c>
+      <c r="C343">
+        <v>21</v>
+      </c>
+      <c r="D343">
+        <v>985</v>
+      </c>
+      <c r="E343" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>1</v>
+      </c>
+      <c r="B344">
+        <v>43</v>
+      </c>
+      <c r="C344">
+        <v>57</v>
+      </c>
+      <c r="D344">
+        <v>976</v>
+      </c>
+      <c r="E344" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>2</v>
+      </c>
+      <c r="B345">
+        <v>59</v>
+      </c>
+      <c r="C345">
+        <v>77</v>
+      </c>
+      <c r="D345">
+        <v>974</v>
+      </c>
+      <c r="E345" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>3</v>
+      </c>
+      <c r="B346">
+        <v>4</v>
+      </c>
+      <c r="C346">
+        <v>66</v>
+      </c>
+      <c r="D346">
+        <v>973</v>
+      </c>
+      <c r="E346" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>4</v>
+      </c>
+      <c r="B347">
+        <v>59</v>
+      </c>
+      <c r="C347">
+        <v>82</v>
+      </c>
+      <c r="D347">
+        <v>971</v>
+      </c>
+      <c r="E347" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>5</v>
+      </c>
+      <c r="B348">
+        <v>59</v>
+      </c>
+      <c r="C348">
+        <v>66</v>
+      </c>
+      <c r="D348">
+        <v>970</v>
+      </c>
+      <c r="E348" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>6</v>
+      </c>
+      <c r="B349">
+        <v>40</v>
+      </c>
+      <c r="C349">
+        <v>43</v>
+      </c>
+      <c r="D349">
+        <v>969</v>
+      </c>
+      <c r="E349" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>7</v>
+      </c>
+      <c r="B350">
+        <v>66</v>
+      </c>
+      <c r="C350">
+        <v>77</v>
+      </c>
+      <c r="D350">
+        <v>969</v>
+      </c>
+      <c r="E350" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>8</v>
+      </c>
+      <c r="B351">
+        <v>81</v>
+      </c>
+      <c r="C351">
+        <v>82</v>
+      </c>
+      <c r="D351">
+        <v>969</v>
+      </c>
+      <c r="E351" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>9</v>
+      </c>
+      <c r="B352">
+        <v>21</v>
+      </c>
+      <c r="C352">
+        <v>66</v>
+      </c>
+      <c r="D352">
+        <v>965</v>
+      </c>
+      <c r="E352" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B370" t="s">
+        <v>0</v>
+      </c>
+      <c r="C370" t="s">
+        <v>1</v>
+      </c>
+      <c r="D370" t="s">
+        <v>2</v>
+      </c>
+      <c r="E370" t="s">
+        <v>3</v>
+      </c>
+      <c r="F370" t="s">
+        <v>4</v>
+      </c>
+      <c r="G370" t="s">
+        <v>5</v>
+      </c>
+      <c r="H370" t="s">
+        <v>6</v>
+      </c>
+      <c r="I370" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>0</v>
+      </c>
+      <c r="B371">
+        <v>5</v>
+      </c>
+      <c r="C371">
+        <v>941</v>
+      </c>
+      <c r="D371">
+        <v>5648</v>
+      </c>
+      <c r="E371">
+        <v>952</v>
+      </c>
+      <c r="F371">
+        <v>932</v>
+      </c>
+      <c r="G371">
+        <v>6.5490000000000004</v>
+      </c>
+      <c r="H371" t="s">
+        <v>172</v>
+      </c>
+      <c r="I371" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>1</v>
+      </c>
+      <c r="B372">
+        <v>2</v>
+      </c>
+      <c r="C372">
+        <v>937</v>
+      </c>
+      <c r="D372">
+        <v>937</v>
+      </c>
+      <c r="E372">
+        <v>937</v>
+      </c>
+      <c r="F372">
+        <v>937</v>
+      </c>
+      <c r="G372">
+        <v>0</v>
+      </c>
+      <c r="H372" t="s">
+        <v>103</v>
+      </c>
+      <c r="I372" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>2</v>
+      </c>
+      <c r="B373">
+        <v>3</v>
+      </c>
+      <c r="C373">
+        <v>934</v>
+      </c>
+      <c r="D373">
+        <v>1868</v>
+      </c>
+      <c r="E373">
+        <v>935</v>
+      </c>
+      <c r="F373">
+        <v>933</v>
+      </c>
+      <c r="G373">
+        <v>1</v>
+      </c>
+      <c r="H373" t="s">
+        <v>95</v>
+      </c>
+      <c r="I373" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>3</v>
+      </c>
+      <c r="B374">
+        <v>2</v>
+      </c>
+      <c r="C374">
+        <v>932</v>
+      </c>
+      <c r="D374">
+        <v>932</v>
+      </c>
+      <c r="E374">
+        <v>932</v>
+      </c>
+      <c r="F374">
+        <v>932</v>
+      </c>
+      <c r="G374">
+        <v>0</v>
+      </c>
+      <c r="H374" t="s">
+        <v>164</v>
+      </c>
+      <c r="I374" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B377" t="s">
+        <v>49</v>
+      </c>
+      <c r="C377" t="s">
+        <v>50</v>
+      </c>
+      <c r="D377" t="s">
+        <v>51</v>
+      </c>
+      <c r="E377" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>0</v>
+      </c>
+      <c r="B378">
+        <v>59</v>
+      </c>
+      <c r="C378">
+        <v>77</v>
+      </c>
+      <c r="D378">
+        <v>952</v>
+      </c>
+      <c r="E378" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>1</v>
+      </c>
+      <c r="B379">
+        <v>59</v>
+      </c>
+      <c r="C379">
+        <v>82</v>
+      </c>
+      <c r="D379">
+        <v>947</v>
+      </c>
+      <c r="E379" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>2</v>
+      </c>
+      <c r="B380">
+        <v>59</v>
+      </c>
+      <c r="C380">
+        <v>66</v>
+      </c>
+      <c r="D380">
+        <v>941</v>
+      </c>
+      <c r="E380" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>3</v>
+      </c>
+      <c r="B381">
+        <v>66</v>
+      </c>
+      <c r="C381">
+        <v>77</v>
+      </c>
+      <c r="D381">
+        <v>939</v>
+      </c>
+      <c r="E381" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>4</v>
+      </c>
+      <c r="B382">
+        <v>4</v>
+      </c>
+      <c r="C382">
+        <v>21</v>
+      </c>
+      <c r="D382">
+        <v>937</v>
+      </c>
+      <c r="E382" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>5</v>
+      </c>
+      <c r="B383">
+        <v>77</v>
+      </c>
+      <c r="C383">
+        <v>82</v>
+      </c>
+      <c r="D383">
+        <v>937</v>
+      </c>
+      <c r="E383" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>6</v>
+      </c>
+      <c r="B384">
+        <v>43</v>
+      </c>
+      <c r="C384">
+        <v>57</v>
+      </c>
+      <c r="D384">
+        <v>935</v>
+      </c>
+      <c r="E384" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>7</v>
+      </c>
+      <c r="B385">
+        <v>40</v>
+      </c>
+      <c r="C385">
+        <v>43</v>
+      </c>
+      <c r="D385">
+        <v>933</v>
+      </c>
+      <c r="E385" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>8</v>
+      </c>
+      <c r="B386">
+        <v>81</v>
+      </c>
+      <c r="C386">
+        <v>82</v>
+      </c>
+      <c r="D386">
+        <v>932</v>
+      </c>
+      <c r="E386" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>9</v>
+      </c>
+      <c r="B387">
+        <v>34</v>
+      </c>
+      <c r="C387">
+        <v>79</v>
+      </c>
+      <c r="D387">
+        <v>932</v>
+      </c>
+      <c r="E387" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>174</v>
+      </c>
+      <c r="I392" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A393" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I393" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>139</v>
+      </c>
+      <c r="I394" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B405" t="s">
+        <v>0</v>
+      </c>
+      <c r="C405" t="s">
+        <v>1</v>
+      </c>
+      <c r="D405" t="s">
+        <v>2</v>
+      </c>
+      <c r="E405" t="s">
+        <v>3</v>
+      </c>
+      <c r="F405" t="s">
+        <v>4</v>
+      </c>
+      <c r="G405" t="s">
+        <v>5</v>
+      </c>
+      <c r="H405" t="s">
+        <v>6</v>
+      </c>
+      <c r="I405" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>0</v>
+      </c>
+      <c r="B406">
+        <v>5</v>
+      </c>
+      <c r="C406">
+        <v>937</v>
+      </c>
+      <c r="D406">
+        <v>6558</v>
+      </c>
+      <c r="E406">
+        <v>952</v>
+      </c>
+      <c r="F406">
+        <v>910</v>
+      </c>
+      <c r="G406">
+        <v>12.529</v>
+      </c>
+      <c r="H406" t="s">
+        <v>172</v>
+      </c>
+      <c r="I406" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>1</v>
+      </c>
+      <c r="B407">
+        <v>2</v>
+      </c>
+      <c r="C407">
+        <v>937</v>
+      </c>
+      <c r="D407">
+        <v>937</v>
+      </c>
+      <c r="E407">
+        <v>937</v>
+      </c>
+      <c r="F407">
+        <v>937</v>
+      </c>
+      <c r="G407">
+        <v>0</v>
+      </c>
+      <c r="H407" t="s">
+        <v>103</v>
+      </c>
+      <c r="I407" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>2</v>
+      </c>
+      <c r="B408">
+        <v>2</v>
+      </c>
+      <c r="C408">
+        <v>932</v>
+      </c>
+      <c r="D408">
+        <v>932</v>
+      </c>
+      <c r="E408">
+        <v>932</v>
+      </c>
+      <c r="F408">
+        <v>932</v>
+      </c>
+      <c r="G408">
+        <v>0</v>
+      </c>
+      <c r="H408" t="s">
+        <v>164</v>
+      </c>
+      <c r="I408" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>3</v>
+      </c>
+      <c r="B409">
+        <v>2</v>
+      </c>
+      <c r="C409">
+        <v>925</v>
+      </c>
+      <c r="D409">
+        <v>925</v>
+      </c>
+      <c r="E409">
+        <v>925</v>
+      </c>
+      <c r="F409">
+        <v>925</v>
+      </c>
+      <c r="G409">
+        <v>0</v>
+      </c>
+      <c r="H409" t="s">
+        <v>99</v>
+      </c>
+      <c r="I409" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>4</v>
+      </c>
+      <c r="B410">
+        <v>3</v>
+      </c>
+      <c r="C410">
+        <v>922</v>
+      </c>
+      <c r="D410">
+        <v>1844</v>
+      </c>
+      <c r="E410">
+        <v>924</v>
+      </c>
+      <c r="F410">
+        <v>920</v>
+      </c>
+      <c r="G410">
+        <v>2</v>
+      </c>
+      <c r="H410" t="s">
+        <v>180</v>
+      </c>
+      <c r="I410" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>5</v>
+      </c>
+      <c r="B411">
+        <v>5</v>
+      </c>
+      <c r="C411">
+        <v>921</v>
+      </c>
+      <c r="D411">
+        <v>4607</v>
+      </c>
+      <c r="E411">
+        <v>935</v>
+      </c>
+      <c r="F411">
+        <v>910</v>
+      </c>
+      <c r="G411">
+        <v>10.67</v>
+      </c>
+      <c r="H411" t="s">
+        <v>182</v>
+      </c>
+      <c r="I411" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>6</v>
+      </c>
+      <c r="B412">
+        <v>2</v>
+      </c>
+      <c r="C412">
+        <v>912</v>
+      </c>
+      <c r="D412">
+        <v>912</v>
+      </c>
+      <c r="E412">
+        <v>912</v>
+      </c>
+      <c r="F412">
+        <v>912</v>
+      </c>
+      <c r="G412">
+        <v>0</v>
+      </c>
+      <c r="H412" t="s">
+        <v>8</v>
+      </c>
+      <c r="I412" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>7</v>
+      </c>
+      <c r="B413">
+        <v>2</v>
+      </c>
+      <c r="C413">
+        <v>912</v>
+      </c>
+      <c r="D413">
+        <v>912</v>
+      </c>
+      <c r="E413">
+        <v>912</v>
+      </c>
+      <c r="F413">
+        <v>912</v>
+      </c>
+      <c r="G413">
+        <v>0</v>
+      </c>
+      <c r="H413" t="s">
+        <v>184</v>
+      </c>
+      <c r="I413" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B416" t="s">
+        <v>49</v>
+      </c>
+      <c r="C416" t="s">
+        <v>50</v>
+      </c>
+      <c r="D416" t="s">
+        <v>51</v>
+      </c>
+      <c r="E416" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>0</v>
+      </c>
+      <c r="B417">
+        <v>59</v>
+      </c>
+      <c r="C417">
+        <v>77</v>
+      </c>
+      <c r="D417">
+        <v>952</v>
+      </c>
+      <c r="E417" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>1</v>
+      </c>
+      <c r="B418">
+        <v>59</v>
+      </c>
+      <c r="C418">
+        <v>82</v>
+      </c>
+      <c r="D418">
+        <v>947</v>
+      </c>
+      <c r="E418" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>2</v>
+      </c>
+      <c r="B419">
+        <v>59</v>
+      </c>
+      <c r="C419">
+        <v>66</v>
+      </c>
+      <c r="D419">
+        <v>941</v>
+      </c>
+      <c r="E419" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>3</v>
+      </c>
+      <c r="B420">
+        <v>66</v>
+      </c>
+      <c r="C420">
+        <v>77</v>
+      </c>
+      <c r="D420">
+        <v>939</v>
+      </c>
+      <c r="E420" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>4</v>
+      </c>
+      <c r="B421">
+        <v>4</v>
+      </c>
+      <c r="C421">
+        <v>21</v>
+      </c>
+      <c r="D421">
+        <v>937</v>
+      </c>
+      <c r="E421" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>5</v>
+      </c>
+      <c r="B422">
+        <v>77</v>
+      </c>
+      <c r="C422">
+        <v>82</v>
+      </c>
+      <c r="D422">
+        <v>937</v>
+      </c>
+      <c r="E422" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>6</v>
+      </c>
+      <c r="B423">
+        <v>43</v>
+      </c>
+      <c r="C423">
+        <v>57</v>
+      </c>
+      <c r="D423">
+        <v>935</v>
+      </c>
+      <c r="E423" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>7</v>
+      </c>
+      <c r="B424">
+        <v>40</v>
+      </c>
+      <c r="C424">
+        <v>43</v>
+      </c>
+      <c r="D424">
+        <v>933</v>
+      </c>
+      <c r="E424" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>8</v>
+      </c>
+      <c r="B425">
+        <v>81</v>
+      </c>
+      <c r="C425">
+        <v>82</v>
+      </c>
+      <c r="D425">
+        <v>932</v>
+      </c>
+      <c r="E425" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>9</v>
+      </c>
+      <c r="B426">
+        <v>34</v>
+      </c>
+      <c r="C426">
+        <v>79</v>
+      </c>
+      <c r="D426">
+        <v>932</v>
+      </c>
+      <c r="E426" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A438" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B445" t="s">
+        <v>0</v>
+      </c>
+      <c r="C445" t="s">
+        <v>1</v>
+      </c>
+      <c r="D445" t="s">
+        <v>2</v>
+      </c>
+      <c r="E445" t="s">
+        <v>3</v>
+      </c>
+      <c r="F445" t="s">
+        <v>4</v>
+      </c>
+      <c r="G445" t="s">
+        <v>5</v>
+      </c>
+      <c r="H445" t="s">
+        <v>6</v>
+      </c>
+      <c r="I445" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>0</v>
+      </c>
+      <c r="B446">
+        <v>2</v>
+      </c>
+      <c r="C446">
+        <v>1000</v>
+      </c>
+      <c r="D446">
+        <v>1000</v>
+      </c>
+      <c r="E446">
+        <v>1000</v>
+      </c>
+      <c r="F446">
+        <v>1000</v>
+      </c>
+      <c r="G446">
+        <v>0</v>
+      </c>
+      <c r="H446" t="s">
+        <v>195</v>
+      </c>
+      <c r="I446" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>1</v>
+      </c>
+      <c r="B447">
+        <v>4</v>
+      </c>
+      <c r="C447">
+        <v>998</v>
+      </c>
+      <c r="D447">
+        <v>5991</v>
+      </c>
+      <c r="E447">
+        <v>1000</v>
+      </c>
+      <c r="F447">
+        <v>997</v>
+      </c>
+      <c r="G447">
+        <v>1.5</v>
+      </c>
+      <c r="H447" t="s">
+        <v>197</v>
+      </c>
+      <c r="I447" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>2</v>
+      </c>
+      <c r="B448">
+        <v>5</v>
+      </c>
+      <c r="C448">
+        <v>996</v>
+      </c>
+      <c r="D448">
+        <v>6969</v>
+      </c>
+      <c r="E448">
+        <v>1000</v>
+      </c>
+      <c r="F448">
+        <v>989</v>
+      </c>
+      <c r="G448">
+        <v>3.698</v>
+      </c>
+      <c r="H448" t="s">
+        <v>199</v>
+      </c>
+      <c r="I448" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>3</v>
+      </c>
+      <c r="B449">
+        <v>4</v>
+      </c>
+      <c r="C449">
+        <v>996</v>
+      </c>
+      <c r="D449">
+        <v>5974</v>
+      </c>
+      <c r="E449">
+        <v>1000</v>
+      </c>
+      <c r="F449">
+        <v>989</v>
+      </c>
+      <c r="G449">
+        <v>3.6819999999999999</v>
+      </c>
+      <c r="H449" t="s">
+        <v>201</v>
+      </c>
+      <c r="I449" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>4</v>
+      </c>
+      <c r="B450">
+        <v>3</v>
+      </c>
+      <c r="C450">
+        <v>996</v>
+      </c>
+      <c r="D450">
+        <v>2988</v>
+      </c>
+      <c r="E450">
+        <v>999</v>
+      </c>
+      <c r="F450">
+        <v>992</v>
+      </c>
+      <c r="G450">
+        <v>2.944</v>
+      </c>
+      <c r="H450" t="s">
+        <v>203</v>
+      </c>
+      <c r="I450" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>5</v>
+      </c>
+      <c r="B451">
+        <v>2</v>
+      </c>
+      <c r="C451">
+        <v>996</v>
+      </c>
+      <c r="D451">
+        <v>996</v>
+      </c>
+      <c r="E451">
+        <v>996</v>
+      </c>
+      <c r="F451">
+        <v>996</v>
+      </c>
+      <c r="G451">
+        <v>0</v>
+      </c>
+      <c r="H451" t="s">
+        <v>205</v>
+      </c>
+      <c r="I451" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>6</v>
+      </c>
+      <c r="B452">
+        <v>2</v>
+      </c>
+      <c r="C452">
+        <v>996</v>
+      </c>
+      <c r="D452">
+        <v>996</v>
+      </c>
+      <c r="E452">
+        <v>996</v>
+      </c>
+      <c r="F452">
+        <v>996</v>
+      </c>
+      <c r="G452">
+        <v>0</v>
+      </c>
+      <c r="H452" t="s">
+        <v>207</v>
+      </c>
+      <c r="I452" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>7</v>
+      </c>
+      <c r="B453">
+        <v>5</v>
+      </c>
+      <c r="C453">
+        <v>995</v>
+      </c>
+      <c r="D453">
+        <v>3979</v>
+      </c>
+      <c r="E453">
+        <v>997</v>
+      </c>
+      <c r="F453">
+        <v>989</v>
+      </c>
+      <c r="G453">
+        <v>3.3450000000000002</v>
+      </c>
+      <c r="H453" t="s">
+        <v>209</v>
+      </c>
+      <c r="I453" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>8</v>
+      </c>
+      <c r="B454">
+        <v>2</v>
+      </c>
+      <c r="C454">
+        <v>995</v>
+      </c>
+      <c r="D454">
+        <v>995</v>
+      </c>
+      <c r="E454">
+        <v>995</v>
+      </c>
+      <c r="F454">
+        <v>995</v>
+      </c>
+      <c r="G454">
+        <v>0</v>
+      </c>
+      <c r="H454" t="s">
+        <v>211</v>
+      </c>
+      <c r="I454" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>9</v>
+      </c>
+      <c r="B455">
+        <v>2</v>
+      </c>
+      <c r="C455">
+        <v>995</v>
+      </c>
+      <c r="D455">
+        <v>995</v>
+      </c>
+      <c r="E455">
+        <v>995</v>
+      </c>
+      <c r="F455">
+        <v>995</v>
+      </c>
+      <c r="G455">
+        <v>0</v>
+      </c>
+      <c r="H455" t="s">
+        <v>213</v>
+      </c>
+      <c r="I455" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B458" t="s">
+        <v>49</v>
+      </c>
+      <c r="C458" t="s">
+        <v>50</v>
+      </c>
+      <c r="D458" t="s">
+        <v>51</v>
+      </c>
+      <c r="E458" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>0</v>
+      </c>
+      <c r="B459">
+        <v>48</v>
+      </c>
+      <c r="C459">
+        <v>50</v>
+      </c>
+      <c r="D459">
+        <v>1000</v>
+      </c>
+      <c r="E459" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>1</v>
+      </c>
+      <c r="B460">
+        <v>10</v>
+      </c>
+      <c r="C460">
+        <v>48</v>
+      </c>
+      <c r="D460">
+        <v>1000</v>
+      </c>
+      <c r="E460" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>2</v>
+      </c>
+      <c r="B461">
+        <v>11</v>
+      </c>
+      <c r="C461">
+        <v>69</v>
+      </c>
+      <c r="D461">
+        <v>1000</v>
+      </c>
+      <c r="E461" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>3</v>
+      </c>
+      <c r="B462">
+        <v>47</v>
+      </c>
+      <c r="C462">
+        <v>80</v>
+      </c>
+      <c r="D462">
+        <v>1000</v>
+      </c>
+      <c r="E462" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>4</v>
+      </c>
+      <c r="B463">
+        <v>10</v>
+      </c>
+      <c r="C463">
+        <v>50</v>
+      </c>
+      <c r="D463">
+        <v>1000</v>
+      </c>
+      <c r="E463" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>5</v>
+      </c>
+      <c r="B464">
+        <v>51</v>
+      </c>
+      <c r="C464">
+        <v>52</v>
+      </c>
+      <c r="D464">
+        <v>1000</v>
+      </c>
+      <c r="E464" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>6</v>
+      </c>
+      <c r="B465">
+        <v>60</v>
+      </c>
+      <c r="C465">
+        <v>66</v>
+      </c>
+      <c r="D465">
+        <v>999</v>
+      </c>
+      <c r="E465" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>7</v>
+      </c>
+      <c r="B466">
+        <v>43</v>
+      </c>
+      <c r="C466">
+        <v>59</v>
+      </c>
+      <c r="D466">
+        <v>999</v>
+      </c>
+      <c r="E466" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>8</v>
+      </c>
+      <c r="B467">
+        <v>1</v>
+      </c>
+      <c r="C467">
+        <v>67</v>
+      </c>
+      <c r="D467">
+        <v>998</v>
+      </c>
+      <c r="E467" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>9</v>
+      </c>
+      <c r="B468">
+        <v>8</v>
+      </c>
+      <c r="C468">
+        <v>80</v>
+      </c>
+      <c r="D468">
+        <v>998</v>
+      </c>
+      <c r="E468" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
